--- a/ingrid/mvc_analytics/data/cirro.xlsx
+++ b/ingrid/mvc_analytics/data/cirro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>helen.PNG</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
 </sst>
 </file>
@@ -431,15 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +461,14 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,8 +481,14 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,8 +501,14 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -494,8 +521,14 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -508,8 +541,14 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -522,8 +561,14 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -536,8 +581,14 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -550,8 +601,14 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -564,8 +621,14 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -578,8 +641,14 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -592,8 +661,14 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -606,8 +681,14 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -619,6 +700,12 @@
       </c>
       <c r="D13" t="s">
         <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ingrid/mvc_analytics/data/cirro.xlsx
+++ b/ingrid/mvc_analytics/data/cirro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -65,9 +65,6 @@
     <t>helen</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -116,10 +113,7 @@
     <t>helen.PNG</t>
   </si>
   <si>
-    <t>initial</t>
-  </si>
-  <si>
-    <t>final</t>
+    <t>project</t>
   </si>
 </sst>
 </file>
@@ -437,275 +431,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
